--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
@@ -21,9 +21,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="109">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市溝美段一小段01480000地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段03770002地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段06300000地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段06310000地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段06320000地號</t>
+  </si>
+  <si>
+    <t>屛東縣内埔鄉新東勢段04610000地號</t>
+  </si>
+  <si>
+    <t>屏東縣萬巒鄉五溝水段02150007地號</t>
+  </si>
+  <si>
+    <t>屏東縣内埔郷新東勢段02170012地號</t>
+  </si>
+  <si>
+    <t>1000分之53</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>7分之4</t>
+  </si>
+  <si>
+    <t>10000分之399</t>
+  </si>
+  <si>
+    <t>廖靖汝</t>
+  </si>
+  <si>
+    <t>蘇震清</t>
+  </si>
+  <si>
+    <t>87年11月03日</t>
+  </si>
+  <si>
+    <t>95年08月01H</t>
+  </si>
+  <si>
+    <t>94年04月08日</t>
+  </si>
+  <si>
+    <t>100年09月13曰</t>
+  </si>
+  <si>
+    <t>100年11月16曰</t>
+  </si>
+  <si>
+    <t>100年11月17曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp16a71</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,85 +170,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣屏東市溝美段一小段 0148-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0377-0002地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0630-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0631-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0632-0000地號</t>
-  </si>
-  <si>
-    <t>屛東縣内埔鄉新東勢段 0461-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣萬巒鄉五溝水段 0215-0007 地號</t>
-  </si>
-  <si>
-    <t>屏東縣内埔郷新東勢段 0217-0012 地號</t>
-  </si>
-  <si>
-    <t>1000分之 53</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>7分之4</t>
-  </si>
-  <si>
-    <t>10000分之 399</t>
-  </si>
-  <si>
-    <t>廖靖汝</t>
-  </si>
-  <si>
-    <t>蘇震清</t>
-  </si>
-  <si>
-    <t>87年11月 03日</t>
-  </si>
-  <si>
-    <t>95年08月 01 H</t>
-  </si>
-  <si>
-    <t>94年04月 08日</t>
-  </si>
-  <si>
-    <t>100 年 09 月13曰</t>
-  </si>
-  <si>
-    <t>100 年 11 月16曰</t>
-  </si>
-  <si>
-    <t>100 年 11 月17曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市溝美段一小段 00875-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段00064-000建號</t>
+    <t>屏東縣屏東市溝美段一小段00875000建號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段00064000建號</t>
   </si>
   <si>
     <t>種類</t>
@@ -140,22 +191,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>廠 牌型號</t>
+    <t>廠牌型號</t>
   </si>
   <si>
     <t>三陽本田</t>
   </si>
   <si>
-    <t>汽 缸容量</t>
-  </si>
-  <si>
-    <t>登記（取 得）時間</t>
-  </si>
-  <si>
-    <t>97年05月 06日</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>97年05月06日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -173,13 +218,13 @@
     <t>大眾商業銀行屏東分行</t>
   </si>
   <si>
-    <t>屏東繁華郵局（第2 3支 局）</t>
-  </si>
-  <si>
-    <t>嘉義後湖郵局（第15支 局）</t>
-  </si>
-  <si>
-    <t>屏東廣東路郵局(第1 9支 局）</t>
+    <t>屏東繁華郵局（第23支局）</t>
+  </si>
+  <si>
+    <t>嘉義後湖郵局（第15支局）</t>
+  </si>
+  <si>
+    <t>屏東廣東路郵局(第19支局）</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -236,22 +281,22 @@
     <t>安泰喬壽還本終身壽險</t>
   </si>
   <si>
-    <t>89.09.23-109.09.23 銀行扣 款年繳53555</t>
-  </si>
-  <si>
-    <t>89.09.23-109.09.23 銀行扣 款年繳44009</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇淳 89.09.23-109.09.23 銀行扣 款年繳19274</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇婕 89.09.23-109.09.23 銀行扣 款年繳18476</t>
-  </si>
-  <si>
-    <t>被保險人蘇〇淳 92.08.12-112.08.12 銀行扣 款年繳68846</t>
-  </si>
-  <si>
-    <t>被保險人-蘇〇婕 92.08.12-112.08.12 銀行扣 款 70084</t>
+    <t>89.09.23109.09.23銀行扣款年繳53555</t>
+  </si>
+  <si>
+    <t>89.09.23109.09.23銀行扣款年繳44009</t>
+  </si>
+  <si>
+    <t>被保險人一蘇〇淳89.09.23109.09.23銀行扣款年繳19274</t>
+  </si>
+  <si>
+    <t>被保險人一蘇〇婕89.09.23109.09.23銀行扣款年繳18476</t>
+  </si>
+  <si>
+    <t>被保險人蘇〇淳92.08.12112.08.12銀行扣款年繳68846</t>
+  </si>
+  <si>
+    <t>被保險人蘇〇婕92.08.12112.08.12銀行扣款70084</t>
   </si>
   <si>
     <t>債務人</t>
@@ -275,22 +320,22 @@
     <t>長期擔保放款</t>
   </si>
   <si>
-    <t>台灣銀行屏東分行 屏東縣屏東市中山路</t>
-  </si>
-  <si>
-    <t>台灣土地銀行 屏東縣屛東市逢甲路</t>
-  </si>
-  <si>
-    <t>100年03月 28日</t>
-  </si>
-  <si>
-    <t>貸款-中期 擔保放款</t>
+    <t>台灣銀行屏東分行屏東縣屏東市中山路</t>
+  </si>
+  <si>
+    <t>台灣土地銀行屏東縣屛東市逢甲路</t>
+  </si>
+  <si>
+    <t>100年03月28日</t>
+  </si>
+  <si>
+    <t>貸款中期擔保放款</t>
   </si>
   <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>貸款-治家 成長貸款</t>
+    <t>貸款治家成長貸款</t>
   </si>
   <si>
     <t>投</t>
@@ -661,13 +706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,213 +734,402 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>289</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2">
         <v>2797714</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2">
         <v>1645714</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>493714</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>976</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2">
         <v>8228571</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1756</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>1480000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2505</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
         <v>1750000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>6797</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
         <v>800000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -913,25 +1147,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -939,25 +1173,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>96.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -965,22 +1199,22 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>481.98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>3785143</v>
@@ -1001,22 +1235,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1024,22 +1258,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1047,19 +1281,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2">
         <v>1997</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
         <v>830000</v>
@@ -1080,19 +1314,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1100,16 +1334,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>269520</v>
@@ -1120,16 +1354,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>3747491</v>
@@ -1140,16 +1374,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>672116</v>
@@ -1160,16 +1394,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2">
         <v>69737</v>
@@ -1180,16 +1414,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2">
         <v>451418</v>
@@ -1200,16 +1434,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2">
         <v>143415</v>
@@ -1220,16 +1454,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2">
         <v>367316</v>
@@ -1250,16 +1484,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1267,13 +1501,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2">
         <v>760000</v>
@@ -1294,16 +1528,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1311,16 +1545,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1328,16 +1562,16 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1345,16 +1579,16 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1362,16 +1596,16 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1379,16 +1613,16 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1396,16 +1630,16 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1423,22 +1657,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1446,22 +1680,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>4766183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1469,22 +1703,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>616200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1492,22 +1726,22 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>27993</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1525,13 +1759,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1539,10 +1773,10 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣屏東市溝美段一小段01480000地號</t>
+  </si>
+  <si>
     <t>嘉義市遠東段03770002地號</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>屏東縣内埔郷新東勢段02170012地號</t>
   </si>
   <si>
+    <t>1000分之53</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -101,10 +107,13 @@
     <t>10000分之399</t>
   </si>
   <si>
+    <t>廖靖汝</t>
+  </si>
+  <si>
     <t>蘇震清</t>
   </si>
   <si>
-    <t>廖靖汝</t>
+    <t>87年11月03日</t>
   </si>
   <si>
     <t>95年08月01H</t>
@@ -122,13 +131,16 @@
     <t>100年11月17曰</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>共有物分割</t>
   </si>
   <si>
     <t>拍賣</t>
   </si>
   <si>
-    <t>買賣</t>
+    <t>(超過五年）</t>
   </si>
   <si>
     <t>land</t>
@@ -144,12 +156,6 @@
   </si>
   <si>
     <t>屏東縣屏東市溝美段一小段00875000建號</t>
-  </si>
-  <si>
-    <t>87年11月03日</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
   </si>
   <si>
     <t>嘉義市遠東段00064000建號</t>
@@ -625,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,372 +689,425 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2797714</v>
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>1718</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.053</v>
       </c>
       <c r="Q2" s="2">
-        <v>289</v>
+        <v>25.811</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2">
-        <v>1645714</v>
+        <v>2797714</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>1718</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>108</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
-        <v>493714</v>
+        <v>1645714</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>1718</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.571428571428571</v>
       </c>
       <c r="Q4" s="2">
-        <v>33.7142857142857</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>976</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
-        <v>8228571</v>
+        <v>493714</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2">
         <v>1718</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.571428571428571</v>
       </c>
       <c r="Q5" s="2">
-        <v>557.714285714286</v>
+        <v>33.7142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1756</v>
+        <v>976</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
-        <v>1480000</v>
+        <v>8228571</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2">
         <v>1718</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Q6" s="2">
-        <v>1756</v>
+        <v>557.714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2505</v>
+        <v>1756</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
-        <v>1750000</v>
+        <v>1480000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2">
         <v>1718</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>2505</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>6797</v>
+        <v>2505</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2">
-        <v>800000</v>
+        <v>1750000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2">
         <v>1718</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O8" s="2">
+        <v>19</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="P8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6797</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2">
+        <v>800000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2">
         <v>0.0399</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q9" s="2">
         <v>271.2003</v>
       </c>
     </row>
@@ -1059,59 +1118,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>96.66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>96.66</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>481.98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3785143</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2">
-        <v>481.98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3785143</v>
+      <c r="P3" s="2">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>275.417142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1120,351 +1286,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1997</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2">
-        <v>830000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1">
-        <v>269520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3747491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2">
-        <v>672116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2">
-        <v>69737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2">
-        <v>451418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2">
-        <v>143415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2">
-        <v>367316</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1">
-        <v>760000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>86</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>89</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>90</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1474,68 +1295,513 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
+        <v>830000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1">
+        <v>269520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2">
+        <v>269520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3747491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>672116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2">
+        <v>69737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2">
+        <v>451418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2">
+        <v>143415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2">
+        <v>367316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2">
+        <v>760000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>4766183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4766183</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E2" s="2">
-        <v>616200</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2">
+        <v>616200</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2">
         <v>27993</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>80</v>
+      <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1545,20 +1811,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2">
         <v>1000000</v>
       </c>
     </row>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -161,22 +161,7 @@
     <t>嘉義市遠東段00064000建號</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
+    <t>capacity</t>
   </si>
   <si>
     <t>三陽本田</t>
@@ -1287,76 +1272,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
       <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1997</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G2" s="2">
         <v>830000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1374,13 +1378,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1391,16 +1395,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1411,16 +1415,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1431,16 +1435,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1451,19 +1455,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F5" s="2">
         <v>69737</v>
@@ -1471,19 +1475,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2">
         <v>451418</v>
@@ -1491,19 +1495,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2">
         <v>143415</v>
@@ -1511,19 +1515,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2">
         <v>367316</v>
@@ -1544,7 +1548,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1558,10 +1562,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1588,118 +1592,118 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1717,59 +1721,59 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1">
         <v>4766183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>4766183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>616200</v>
@@ -1778,30 +1782,30 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2">
         <v>27993</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1">
         <v>1000000</v>
@@ -1830,13 +1834,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -161,6 +161,9 @@
     <t>嘉義市遠東段00064000建號</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>97年05月06日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>彰化商業銀行嘉義分行</t>
@@ -1185,7 +1191,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -1238,7 +1244,7 @@
         <v>3785143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>41</v>
@@ -1283,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1324,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1333,7 +1339,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -1342,7 +1348,7 @@
         <v>830000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1378,13 +1384,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1398,13 +1404,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1418,13 +1424,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1438,13 +1444,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1458,16 +1464,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2">
         <v>69737</v>
@@ -1478,16 +1484,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2">
         <v>451418</v>
@@ -1498,16 +1504,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2">
         <v>143415</v>
@@ -1518,16 +1524,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2">
         <v>367316</v>
@@ -1548,7 +1554,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1592,16 +1598,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1609,16 +1615,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1626,16 +1632,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1643,16 +1649,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1660,16 +1666,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1677,16 +1683,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1694,16 +1700,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1721,22 +1727,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>4766183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1744,22 +1750,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>4766183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1767,13 +1773,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>616200</v>
@@ -1782,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1790,22 +1796,22 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>27993</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1832,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1">
         <v>1000000</v>
@@ -1840,7 +1846,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -176,27 +176,36 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行嘉義分行</t>
   </si>
   <si>
+    <t>大眾商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>屏東繁華郵局（第23支局）</t>
+  </si>
+  <si>
+    <t>嘉義後湖郵局（第15支局）</t>
+  </si>
+  <si>
+    <t>屏東廣東路郵局(第19支局）</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>大眾商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>屏東繁華郵局（第23支局）</t>
-  </si>
-  <si>
-    <t>嘉義後湖郵局（第15支局）</t>
-  </si>
-  <si>
-    <t>屏東廣東路郵局(第19支局）</t>
-  </si>
-  <si>
     <t>蘇◦淳</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
   </si>
   <si>
     <t>蘇〇婕</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>台鳳高爾夫球場會員證</t>
@@ -1376,13 +1388,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1393,24 +1405,45 @@
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1">
-        <v>269520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1418,19 +1451,40 @@
       <c r="F2" s="2">
         <v>269520</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1438,19 +1492,40 @@
       <c r="F3" s="2">
         <v>3747491</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1458,85 +1533,190 @@
       <c r="F4" s="2">
         <v>672116</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2">
         <v>69737</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
         <v>451418</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2">
         <v>143415</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2">
         <v>367316</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1571,7 +1751,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1598,16 +1778,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1615,16 +1795,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1632,16 +1812,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1649,16 +1829,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1666,16 +1846,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1683,16 +1863,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1700,16 +1880,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1727,22 +1907,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>4766183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1750,22 +1930,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>4766183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1773,13 +1953,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>616200</v>
@@ -1788,7 +1968,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1796,22 +1976,22 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>27993</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +2012,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1">
         <v>1000000</v>
@@ -1846,7 +2026,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -218,7 +218,13 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>台鳳高爾夫球場會員證</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1726,32 +1732,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1">
-        <v>760000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1761,6 +1788,27 @@
       </c>
       <c r="E2" s="2">
         <v>760000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1778,16 +1826,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1795,16 +1843,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1812,16 +1860,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1829,16 +1877,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1846,16 +1894,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1863,16 +1911,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1880,16 +1928,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1907,22 +1955,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>4766183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1930,22 +1978,22 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>4766183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1953,13 +2001,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>616200</v>
@@ -1968,7 +2016,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1976,22 +2024,22 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>27993</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2060,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1">
         <v>1000000</v>
@@ -2026,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>

--- a/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
+++ b/legislator/property/output/normal/蘇震清_2012-04-30_財產申報表_tmp16a71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -224,7 +224,10 @@
     <t>台鳳高爾夫球場會員證</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -233,55 +236,64 @@
     <t>20LPL安泰分红終身壽險</t>
   </si>
   <si>
-    <t>89.09.23109.09.23銀行扣款年繳53555</t>
-  </si>
-  <si>
     <t>20LPL安泰分紅終身壽險</t>
   </si>
   <si>
     <t>安泰喬壽還本終身壽險</t>
   </si>
   <si>
-    <t>89.09.23109.09.23銀行扣款年繳44009</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇淳89.09.23109.09.23銀行扣款年繳19274</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇婕89.09.23109.09.23銀行扣款年繳18476</t>
-  </si>
-  <si>
-    <t>被保險人蘇〇淳92.08.12112.08.12銀行扣款年繳68846</t>
-  </si>
-  <si>
-    <t>被保險人蘇〇婕92.08.12112.08.12銀行扣款70084</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>綜合存款存摺(透支）</t>
   </si>
   <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
     <t>台灣銀行屏東分行屏東縣屏東市中山路</t>
   </si>
   <si>
+    <t>台灣土地銀行屏東縣屛東市逢甲路</t>
+  </si>
+  <si>
     <t>100年03月28日</t>
   </si>
   <si>
     <t>貸款中期擔保放款</t>
   </si>
   <si>
-    <t>長期擔保放款</t>
-  </si>
-  <si>
-    <t>台灣土地銀行屏東縣屛東市逢甲路</t>
-  </si>
-  <si>
     <t>房貸</t>
   </si>
   <si>
     <t>貸款治家成長貸款</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>南島休閒育樂股份有限公司</t>
+  </si>
+  <si>
+    <t>高雄市精富路148號</t>
+  </si>
+  <si>
+    <t>95年08月23日</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1818,49 +1830,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -1871,13 +1919,31 @@
       <c r="E3" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
@@ -1886,32 +1952,68 @@
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
@@ -1920,15 +2022,33 @@
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>72</v>
@@ -1937,7 +2057,25 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1947,44 +2085,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4766183</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>4766183</v>
@@ -1995,19 +2154,40 @@
       <c r="G2" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>616200</v>
@@ -2016,21 +2196,42 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>27993</v>
@@ -2039,7 +2240,28 @@
         <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2049,26 +2271,56 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -2076,8 +2328,38 @@
       <c r="C2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2">
         <v>1000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
